--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ccl5-Sdc4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ccl5-Sdc4.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.614534333333333</v>
+        <v>1.893344666666666</v>
       </c>
       <c r="H2">
-        <v>4.843603</v>
+        <v>5.680033999999999</v>
       </c>
       <c r="I2">
-        <v>0.10197989862822</v>
+        <v>0.05525983881677096</v>
       </c>
       <c r="J2">
-        <v>0.10197989862822</v>
+        <v>0.05525983881677096</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.438907666666667</v>
+        <v>1.442875</v>
       </c>
       <c r="N2">
-        <v>10.316723</v>
+        <v>4.328625</v>
       </c>
       <c r="O2">
-        <v>0.05825422340060619</v>
+        <v>0.02047893724893121</v>
       </c>
       <c r="P2">
-        <v>0.05825422340060618</v>
+        <v>0.02047893724893121</v>
       </c>
       <c r="Q2">
-        <v>5.552234496996555</v>
+        <v>2.731859685916666</v>
       </c>
       <c r="R2">
-        <v>49.970110472969</v>
+        <v>24.58673717324999</v>
       </c>
       <c r="S2">
-        <v>0.005940759797059503</v>
+        <v>0.001131662771514705</v>
       </c>
       <c r="T2">
-        <v>0.005940759797059502</v>
+        <v>0.001131662771514705</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.614534333333333</v>
+        <v>1.893344666666666</v>
       </c>
       <c r="H3">
-        <v>4.843603</v>
+        <v>5.680033999999999</v>
       </c>
       <c r="I3">
-        <v>0.10197989862822</v>
+        <v>0.05525983881677096</v>
       </c>
       <c r="J3">
-        <v>0.10197989862822</v>
+        <v>0.05525983881677096</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>31.151571</v>
       </c>
       <c r="O3">
-        <v>0.1758999031294961</v>
+        <v>0.1473796107804731</v>
       </c>
       <c r="P3">
-        <v>0.1758999031294961</v>
+        <v>0.1473796107804731</v>
       </c>
       <c r="Q3">
-        <v>16.76509363892367</v>
+        <v>19.66022027037933</v>
       </c>
       <c r="R3">
-        <v>150.885842750313</v>
+        <v>176.941982433414</v>
       </c>
       <c r="S3">
-        <v>0.01793825428985974</v>
+        <v>0.008144173536607383</v>
       </c>
       <c r="T3">
-        <v>0.01793825428985974</v>
+        <v>0.008144173536607381</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.614534333333333</v>
+        <v>1.893344666666666</v>
       </c>
       <c r="H4">
-        <v>4.843603</v>
+        <v>5.680033999999999</v>
       </c>
       <c r="I4">
-        <v>0.10197989862822</v>
+        <v>0.05525983881677096</v>
       </c>
       <c r="J4">
-        <v>0.10197989862822</v>
+        <v>0.05525983881677096</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>19.86921833333333</v>
+        <v>27.934719</v>
       </c>
       <c r="N4">
-        <v>59.607655</v>
+        <v>83.804157</v>
       </c>
       <c r="O4">
-        <v>0.336579517619719</v>
+        <v>0.3964815784233052</v>
       </c>
       <c r="P4">
-        <v>0.336579517619719</v>
+        <v>0.3964815784233051</v>
       </c>
       <c r="Q4">
-        <v>32.07953517566278</v>
+        <v>52.890051233482</v>
       </c>
       <c r="R4">
-        <v>288.715816580965</v>
+        <v>476.010461101338</v>
       </c>
       <c r="S4">
-        <v>0.03432434508719415</v>
+        <v>0.02190950811749078</v>
       </c>
       <c r="T4">
-        <v>0.03432434508719415</v>
+        <v>0.02190950811749078</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>1.614534333333333</v>
+        <v>1.893344666666666</v>
       </c>
       <c r="H5">
-        <v>4.843603</v>
+        <v>5.680033999999999</v>
       </c>
       <c r="I5">
-        <v>0.10197989862822</v>
+        <v>0.05525983881677096</v>
       </c>
       <c r="J5">
-        <v>0.10197989862822</v>
+        <v>0.05525983881677096</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>25.34077833333333</v>
+        <v>30.695086</v>
       </c>
       <c r="N5">
-        <v>76.022335</v>
+        <v>92.085258</v>
       </c>
       <c r="O5">
-        <v>0.4292663558501786</v>
+        <v>0.4356598735472906</v>
       </c>
       <c r="P5">
-        <v>0.4292663558501786</v>
+        <v>0.4356598735472905</v>
       </c>
       <c r="Q5">
-        <v>40.91355665255611</v>
+        <v>58.11637737097466</v>
       </c>
       <c r="R5">
-        <v>368.222009873005</v>
+        <v>523.0473963387719</v>
       </c>
       <c r="S5">
-        <v>0.04377653945410665</v>
+        <v>0.02407449439115809</v>
       </c>
       <c r="T5">
-        <v>0.04377653945410665</v>
+        <v>0.02407449439115809</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.159773333333333</v>
+        <v>4.159773333333334</v>
       </c>
       <c r="H6">
         <v>12.47932</v>
       </c>
       <c r="I6">
-        <v>0.2627465109236077</v>
+        <v>0.1214086415227279</v>
       </c>
       <c r="J6">
-        <v>0.2627465109236077</v>
+        <v>0.1214086415227279</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.438907666666667</v>
+        <v>1.442875</v>
       </c>
       <c r="N6">
-        <v>10.316723</v>
+        <v>4.328625</v>
       </c>
       <c r="O6">
-        <v>0.05825422340060619</v>
+        <v>0.02047893724893121</v>
       </c>
       <c r="P6">
-        <v>0.05825422340060618</v>
+        <v>0.02047893724893121</v>
       </c>
       <c r="Q6">
-        <v>14.30507640759555</v>
+        <v>6.002032948333333</v>
       </c>
       <c r="R6">
-        <v>128.74568766836</v>
+        <v>54.018296535</v>
       </c>
       <c r="S6">
-        <v>0.01530609394507366</v>
+        <v>0.002486319951221928</v>
       </c>
       <c r="T6">
-        <v>0.01530609394507365</v>
+        <v>0.002486319951221928</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.159773333333333</v>
+        <v>4.159773333333334</v>
       </c>
       <c r="H7">
         <v>12.47932</v>
       </c>
       <c r="I7">
-        <v>0.2627465109236077</v>
+        <v>0.1214086415227279</v>
       </c>
       <c r="J7">
-        <v>0.2627465109236077</v>
+        <v>0.1214086415227279</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>31.151571</v>
       </c>
       <c r="O7">
-        <v>0.1758999031294961</v>
+        <v>0.1473796107804731</v>
       </c>
       <c r="P7">
-        <v>0.1758999031294961</v>
+        <v>0.1473796107804731</v>
       </c>
       <c r="Q7">
-        <v>43.19449144574666</v>
+        <v>43.19449144574667</v>
       </c>
       <c r="R7">
-        <v>388.7504230117199</v>
+        <v>388.75042301172</v>
       </c>
       <c r="S7">
-        <v>0.04621708581907569</v>
+        <v>0.01789315833300562</v>
       </c>
       <c r="T7">
-        <v>0.04621708581907569</v>
+        <v>0.01789315833300562</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.159773333333333</v>
+        <v>4.159773333333334</v>
       </c>
       <c r="H8">
         <v>12.47932</v>
       </c>
       <c r="I8">
-        <v>0.2627465109236077</v>
+        <v>0.1214086415227279</v>
       </c>
       <c r="J8">
-        <v>0.2627465109236077</v>
+        <v>0.1214086415227279</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>19.86921833333333</v>
+        <v>27.934719</v>
       </c>
       <c r="N8">
-        <v>59.607655</v>
+        <v>83.804157</v>
       </c>
       <c r="O8">
-        <v>0.336579517619719</v>
+        <v>0.3964815784233052</v>
       </c>
       <c r="P8">
-        <v>0.336579517619719</v>
+        <v>0.3964815784233051</v>
       </c>
       <c r="Q8">
-        <v>82.65144457717777</v>
+        <v>116.20209917036</v>
       </c>
       <c r="R8">
-        <v>743.8630011946</v>
+        <v>1045.81889253324</v>
       </c>
       <c r="S8">
-        <v>0.0884350939029321</v>
+        <v>0.04813628982516038</v>
       </c>
       <c r="T8">
-        <v>0.0884350939029321</v>
+        <v>0.04813628982516038</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.159773333333333</v>
+        <v>4.159773333333334</v>
       </c>
       <c r="H9">
         <v>12.47932</v>
       </c>
       <c r="I9">
-        <v>0.2627465109236077</v>
+        <v>0.1214086415227279</v>
       </c>
       <c r="J9">
-        <v>0.2627465109236077</v>
+        <v>0.1214086415227279</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>25.34077833333333</v>
+        <v>30.695086</v>
       </c>
       <c r="N9">
-        <v>76.022335</v>
+        <v>92.085258</v>
       </c>
       <c r="O9">
-        <v>0.4292663558501786</v>
+        <v>0.4356598735472906</v>
       </c>
       <c r="P9">
-        <v>0.4292663558501786</v>
+        <v>0.4356598735472905</v>
       </c>
       <c r="Q9">
-        <v>105.4118939569111</v>
+        <v>127.6846002071733</v>
       </c>
       <c r="R9">
-        <v>948.7070456122</v>
+        <v>1149.16140186456</v>
       </c>
       <c r="S9">
-        <v>0.1127882372565262</v>
+        <v>0.05289287341333997</v>
       </c>
       <c r="T9">
-        <v>0.1127882372565262</v>
+        <v>0.05289287341333996</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,22 +1027,22 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.3657366666666667</v>
+        <v>1.240212333333333</v>
       </c>
       <c r="H10">
-        <v>1.09721</v>
+        <v>3.720637</v>
       </c>
       <c r="I10">
-        <v>0.02310126667562748</v>
+        <v>0.03619728348733726</v>
       </c>
       <c r="J10">
-        <v>0.02310126667562749</v>
+        <v>0.03619728348733727</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.438907666666667</v>
+        <v>1.442875</v>
       </c>
       <c r="N10">
-        <v>10.316723</v>
+        <v>4.328625</v>
       </c>
       <c r="O10">
-        <v>0.05825422340060619</v>
+        <v>0.02047893724893121</v>
       </c>
       <c r="P10">
-        <v>0.05825422340060618</v>
+        <v>0.02047893724893121</v>
       </c>
       <c r="Q10">
-        <v>1.257734626981111</v>
+        <v>1.789471370458333</v>
       </c>
       <c r="R10">
-        <v>11.31961164283</v>
+        <v>16.105242334125</v>
       </c>
       <c r="S10">
-        <v>0.001345746349758983</v>
+        <v>0.0007412818971189537</v>
       </c>
       <c r="T10">
-        <v>0.001345746349758983</v>
+        <v>0.0007412818971189538</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,22 +1089,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.3657366666666667</v>
+        <v>1.240212333333333</v>
       </c>
       <c r="H11">
-        <v>1.09721</v>
+        <v>3.720637</v>
       </c>
       <c r="I11">
-        <v>0.02310126667562748</v>
+        <v>0.03619728348733726</v>
       </c>
       <c r="J11">
-        <v>0.02310126667562749</v>
+        <v>0.03619728348733727</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>31.151571</v>
       </c>
       <c r="O11">
-        <v>0.1758999031294961</v>
+        <v>0.1473796107804731</v>
       </c>
       <c r="P11">
-        <v>0.1758999031294961</v>
+        <v>0.1473796107804731</v>
       </c>
       <c r="Q11">
-        <v>3.797757246323333</v>
+        <v>12.87818751896967</v>
       </c>
       <c r="R11">
-        <v>34.17981521691</v>
+        <v>115.903687670727</v>
       </c>
       <c r="S11">
-        <v>0.004063510570411532</v>
+        <v>0.005334741551674212</v>
       </c>
       <c r="T11">
-        <v>0.004063510570411532</v>
+        <v>0.005334741551674212</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,22 +1151,22 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.3657366666666667</v>
+        <v>1.240212333333333</v>
       </c>
       <c r="H12">
-        <v>1.09721</v>
+        <v>3.720637</v>
       </c>
       <c r="I12">
-        <v>0.02310126667562748</v>
+        <v>0.03619728348733726</v>
       </c>
       <c r="J12">
-        <v>0.02310126667562749</v>
+        <v>0.03619728348733727</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>19.86921833333333</v>
+        <v>27.934719</v>
       </c>
       <c r="N12">
-        <v>59.607655</v>
+        <v>83.804157</v>
       </c>
       <c r="O12">
-        <v>0.336579517619719</v>
+        <v>0.3964815784233052</v>
       </c>
       <c r="P12">
-        <v>0.336579517619719</v>
+        <v>0.3964815784233051</v>
       </c>
       <c r="Q12">
-        <v>7.266901682505555</v>
+        <v>34.644983032001</v>
       </c>
       <c r="R12">
-        <v>65.40211514255</v>
+        <v>311.804847288009</v>
       </c>
       <c r="S12">
-        <v>0.007775413194087187</v>
+        <v>0.01435155609169532</v>
       </c>
       <c r="T12">
-        <v>0.007775413194087189</v>
+        <v>0.01435155609169532</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,22 +1213,22 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.3657366666666667</v>
+        <v>1.240212333333333</v>
       </c>
       <c r="H13">
-        <v>1.09721</v>
+        <v>3.720637</v>
       </c>
       <c r="I13">
-        <v>0.02310126667562748</v>
+        <v>0.03619728348733726</v>
       </c>
       <c r="J13">
-        <v>0.02310126667562749</v>
+        <v>0.03619728348733727</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>25.34077833333333</v>
+        <v>30.695086</v>
       </c>
       <c r="N13">
-        <v>76.022335</v>
+        <v>92.085258</v>
       </c>
       <c r="O13">
-        <v>0.4292663558501786</v>
+        <v>0.4356598735472906</v>
       </c>
       <c r="P13">
-        <v>0.4292663558501786</v>
+        <v>0.4356598735472905</v>
       </c>
       <c r="Q13">
-        <v>9.268051798372221</v>
+        <v>38.06842422992733</v>
       </c>
       <c r="R13">
-        <v>83.41246618535</v>
+        <v>342.615818069346</v>
       </c>
       <c r="S13">
-        <v>0.00991659656136978</v>
+        <v>0.01576970394684878</v>
       </c>
       <c r="T13">
-        <v>0.009916596561369782</v>
+        <v>0.01576970394684878</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>9.691843666666665</v>
+        <v>26.96925</v>
       </c>
       <c r="H14">
-        <v>29.075531</v>
+        <v>80.90774999999999</v>
       </c>
       <c r="I14">
-        <v>0.6121723237725447</v>
+        <v>0.7871342361731639</v>
       </c>
       <c r="J14">
-        <v>0.6121723237725448</v>
+        <v>0.7871342361731638</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.438907666666667</v>
+        <v>1.442875</v>
       </c>
       <c r="N14">
-        <v>10.316723</v>
+        <v>4.328625</v>
       </c>
       <c r="O14">
-        <v>0.05825422340060619</v>
+        <v>0.02047893724893121</v>
       </c>
       <c r="P14">
-        <v>0.05825422340060618</v>
+        <v>0.02047893724893121</v>
       </c>
       <c r="Q14">
-        <v>33.32935548943477</v>
+        <v>38.91325659375</v>
       </c>
       <c r="R14">
-        <v>299.964199404913</v>
+        <v>350.21930934375</v>
       </c>
       <c r="S14">
-        <v>0.03566162330871404</v>
+        <v>0.01611967262907562</v>
       </c>
       <c r="T14">
-        <v>0.03566162330871404</v>
+        <v>0.01611967262907562</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>9.691843666666665</v>
+        <v>26.96925</v>
       </c>
       <c r="H15">
-        <v>29.075531</v>
+        <v>80.90774999999999</v>
       </c>
       <c r="I15">
-        <v>0.6121723237725447</v>
+        <v>0.7871342361731639</v>
       </c>
       <c r="J15">
-        <v>0.6121723237725448</v>
+        <v>0.7871342361731638</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>31.151571</v>
       </c>
       <c r="O15">
-        <v>0.1758999031294961</v>
+        <v>0.1473796107804731</v>
       </c>
       <c r="P15">
-        <v>0.1758999031294961</v>
+        <v>0.1473796107804731</v>
       </c>
       <c r="Q15">
-        <v>100.6387187010223</v>
+        <v>280.04483539725</v>
       </c>
       <c r="R15">
-        <v>905.7484683092008</v>
+        <v>2520.40351857525</v>
       </c>
       <c r="S15">
-        <v>0.1076810524501492</v>
+        <v>0.1160075373591859</v>
       </c>
       <c r="T15">
-        <v>0.1076810524501492</v>
+        <v>0.1160075373591858</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>9.691843666666665</v>
+        <v>26.96925</v>
       </c>
       <c r="H16">
-        <v>29.075531</v>
+        <v>80.90774999999999</v>
       </c>
       <c r="I16">
-        <v>0.6121723237725447</v>
+        <v>0.7871342361731639</v>
       </c>
       <c r="J16">
-        <v>0.6121723237725448</v>
+        <v>0.7871342361731638</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>19.86921833333333</v>
+        <v>27.934719</v>
       </c>
       <c r="N16">
-        <v>59.607655</v>
+        <v>83.804157</v>
       </c>
       <c r="O16">
-        <v>0.336579517619719</v>
+        <v>0.3964815784233052</v>
       </c>
       <c r="P16">
-        <v>0.336579517619719</v>
+        <v>0.3964815784233051</v>
       </c>
       <c r="Q16">
-        <v>192.5693578655338</v>
+        <v>753.37842039075</v>
       </c>
       <c r="R16">
-        <v>1733.124220789805</v>
+        <v>6780.40578351675</v>
       </c>
       <c r="S16">
-        <v>0.2060446654355055</v>
+        <v>0.3120842243889587</v>
       </c>
       <c r="T16">
-        <v>0.2060446654355056</v>
+        <v>0.3120842243889586</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>9.691843666666665</v>
+        <v>26.96925</v>
       </c>
       <c r="H17">
-        <v>29.075531</v>
+        <v>80.90774999999999</v>
       </c>
       <c r="I17">
-        <v>0.6121723237725447</v>
+        <v>0.7871342361731639</v>
       </c>
       <c r="J17">
-        <v>0.6121723237725448</v>
+        <v>0.7871342361731638</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>25.34077833333333</v>
+        <v>30.695086</v>
       </c>
       <c r="N17">
-        <v>76.022335</v>
+        <v>92.085258</v>
       </c>
       <c r="O17">
-        <v>0.4292663558501786</v>
+        <v>0.4356598735472906</v>
       </c>
       <c r="P17">
-        <v>0.4292663558501786</v>
+        <v>0.4356598735472905</v>
       </c>
       <c r="Q17">
-        <v>245.5988619983205</v>
+        <v>827.8234481055</v>
       </c>
       <c r="R17">
-        <v>2210.389757984885</v>
+        <v>7450.411032949499</v>
       </c>
       <c r="S17">
-        <v>0.262784982578176</v>
+        <v>0.3429228017959438</v>
       </c>
       <c r="T17">
-        <v>0.262784982578176</v>
+        <v>0.3429228017959436</v>
       </c>
     </row>
   </sheetData>
